--- a/data/long_bre/P24_5-Urba-long_bre.xlsx
+++ b/data/long_bre/P24_5-Urba-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>15,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35,14%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 8,57</t>
+          <t>-2,93; 9,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 6,32</t>
+          <t>-7,51; 5,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 11,4</t>
+          <t>0,05; 11,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 43,4</t>
+          <t>0,63; 14,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 36,22</t>
+          <t>-11,05; 47,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 56,7</t>
+          <t>-28,06; 28,59</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 55,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 77,16</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>-15,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-7,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,52%</t>
+          <t>-8,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,4%</t>
+          <t>-9,64%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,69%</t>
+          <t>-26,22%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-14,16%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,26%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,77; 2,85</t>
+          <t>-12,92; 0,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,32; -8,24</t>
+          <t>-22,35; -8,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 0,72</t>
+          <t>-14,87; -1,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,58; 5,51</t>
+          <t>-16,16; 1,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,25; -15,16</t>
+          <t>-20,26; 1,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,15; 1,06</t>
+          <t>-36,08; -15,02</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-24,68; -2,71</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-29,21; 2,82</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,76</t>
+          <t>15,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>79,43%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 7,27</t>
+          <t>-2,86; 7,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,87; 21,01</t>
+          <t>9,84; 21,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,35</t>
+          <t>-3,55; 6,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 48,17</t>
+          <t>-11,9; 8,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>35,74; 113,64</t>
+          <t>-13,3; 50,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 35,53</t>
+          <t>41,68; 129,49</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-15,01; 38,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-33,76; 38,59</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>48,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 12,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 13,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 10,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 80,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 119,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 58,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-15,44</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,53</t>
+          <t>8,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,32</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-23,77%</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,28%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,07%</t>
+          <t>55,63%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,3; -8,16</t>
+          <t>-2,02; 11,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,51; -3,9</t>
+          <t>1,13; 15,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,5; -3,67</t>
+          <t>-0,8; 10,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,64; -12,79</t>
+          <t>-6,99; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,89; -7,49</t>
+          <t>-8,89; 62,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,52; -7,75</t>
+          <t>2,5; 139,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 59,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,69; 39,4</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>-15,1</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,65</t>
+          <t>-11,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>-5,96</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>-23,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>-24,63%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-20,13%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 15,06</t>
+          <t>-21,78; -6,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 12,66</t>
+          <t>-22,53; -5,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 12,77</t>
+          <t>-19,15; -4,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,81; 119,27</t>
+          <t>-15,37; 2,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 53,46</t>
+          <t>-32,71; -10,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 69,56</t>
+          <t>-35,86; -10,99</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-31,35; -8,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-27,23; 6,3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,17</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>6,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,93%</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>56,46%</t>
+          <t>64,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>21,9%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 22,93</t>
+          <t>3,92; 16,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 19,12</t>
+          <t>-2,17; 14,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 17,74</t>
+          <t>-0,71; 12,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 151,3</t>
+          <t>-2,42; 11,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-22,66; 229,39</t>
+          <t>18,1; 130,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 136,98</t>
+          <t>-5,68; 64,55</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 65,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 65,7</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-39,06%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-32,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-25,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -5,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,46; -4,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -2,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,5; -11,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,08; -8,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,44; -4,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>16,67</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,35</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>125,87%</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>46,6%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37,42%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-43,93%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,4; 28,75</t>
+          <t>-18,88; 17,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 24,96</t>
+          <t>-4,81; 19,05</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 21,54</t>
+          <t>-3,51; 19,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,81; 354,63</t>
+          <t>-39,19; 2,04</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 135,06</t>
+          <t>-50,38; 101,71</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 192,02</t>
+          <t>-25,73; 205,89</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-16,53; 136,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-77,4; 13,88</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>-18,35</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-19,3</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>-16,13</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22,02%</t>
+          <t>10,25</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>-31,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>-31,92%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-25,88%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 9,25</t>
+          <t>-32,49; 1,08</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 8,63</t>
+          <t>-35,43; -3,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,68; 9,29</t>
+          <t>-28,5; 0,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 47,93</t>
+          <t>-8,59; 30,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 55,02</t>
+          <t>-48,38; 1,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,02; 47,17</t>
+          <t>-50,51; -6,94</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-41,59; 0,07</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-15,34; 93,07</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-11,12</t>
+          <t>14,35</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-14,7</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-9,78</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-18,19%</t>
+          <t>4,05</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-25,53%</t>
+          <t>94,75%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>50,19%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20,09%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,94; -5,6</t>
+          <t>2,96; 25,83</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-20,22; -9,66</t>
+          <t>-1,82; 25,94</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-14,24; -4,68</t>
+          <t>-5,66; 19,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-25,22; -9,81</t>
+          <t>-11,86; 17,59</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-33,24; -17,68</t>
+          <t>10,33; 302,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -8,67</t>
+          <t>-7,15; 159,52</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; 162,32</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-38,48; 146,15</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>42,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,449 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,34; 9,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,78; 14,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>0,08; 8,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>12,32; 66,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>20,78; 67,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 43,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>5,84</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>18,81%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>20,58%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>9,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 7,97</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 8,12</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 10,03</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 7,63</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-3,37; 40,39</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-2,44; 52,12</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 52,49</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-11,09; 33,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-10,86</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-15,3</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>-10,2</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>-5,25</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-17,85%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-17,96%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-10,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-15,76; -6,06</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-20,75; -9,68</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-15,2; -6,05</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; 1,95</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-24,84; -10,78</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-33,86; -17,87</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-25,25; -10,95</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-19,95; 4,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>11,52</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>2,79</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>39,43%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>48,98%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>11,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 10,52</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 16,54</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 7,98</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 7,64</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 69,96</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>26,63; 79,54</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 40,9</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-16,07; 36,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
